--- a/Planilhas/MRV/Indicadores-MRV.xlsx
+++ b/Planilhas/MRV/Indicadores-MRV.xlsx
@@ -52,7 +52,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
